--- a/biology/Histoire de la zoologie et de la botanique/Paul_Alexander_Zino/Paul_Alexander_Zino.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Alexander_Zino/Paul_Alexander_Zino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Alexander Zino (9 février 1916 - 3 mars 2004) était un ornithologue portugais qui a donné le nom vernaculaire anglais du Pétrel de Madère (Pterodroma madeira) : Zino's Petrel.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zino est né à Madère, mais a étudié en Angleterre au St. Edmund's College de Ware[1]. En 1963 il prend part à une expédition aux Îles Selvagens. Il y retourne en 1967, y construit une maison et étudie sur place le Puffin cendré (Calonectris diomedea). Ces travaux ont conduit à protéger l'espèce et à inclure l'île dans le parc naturel de Madère en 1986.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zino est né à Madère, mais a étudié en Angleterre au St. Edmund's College de Ware. En 1963 il prend part à une expédition aux Îles Selvagens. Il y retourne en 1967, y construit une maison et étudie sur place le Puffin cendré (Calonectris diomedea). Ces travaux ont conduit à protéger l'espèce et à inclure l'île dans le parc naturel de Madère en 1986.
 Zino a également visité les îles Desertas, y étudiant le Pétrel gongon (Pterodroma feae). Cela a conduit à s'intéresser au plus petit Pétrel de Madère, qui a été découvert sur l'île éponyme en 1903. Zino entreprend de localiser la colonie restante de cet oiseau en voie d'extinction, et de la protéger.
 </t>
         </is>
